--- a/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E43FFA9-F3B8-4D13-8F5E-CABA4688724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEAE78-77AB-444F-BBF3-211BCB979722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -115,7 +115,16 @@
     <t>../../Outputs/ReportingFramework</t>
   </si>
   <si>
-    <t>../ReportingFramework</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>populationParamsFile</t>
+  </si>
+  <si>
+    <t>PopulationParameters.xlsx</t>
+  </si>
+  <si>
+    <t>Name of the excel file with population information. Must be located in the "paramsFolder"</t>
   </si>
 </sst>
 </file>
@@ -468,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,67 +547,78 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
     </row>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEAE78-77AB-444F-BBF3-211BCB979722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC71216-3670-45A0-9D96-9460FAF76A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Name of data importer configuration file in xml format used to load the data. Must be located in the "dataFolder"</t>
   </si>
   <si>
-    <t>dataImportConfiguration.xlsx</t>
-  </si>
-  <si>
     <t>Path to the folder where dataconfiguration file is saved</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Name of the excel file with population information. Must be located in the "paramsFolder"</t>
+  </si>
+  <si>
+    <t>DataImportConfiguration.xlsx</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -594,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -613,13 +613,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC71216-3670-45A0-9D96-9460FAF76A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF620F5-19FF-473E-BDC8-BDA5AFA2597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="8625" windowWidth="28830" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -37,48 +37,21 @@
     <t>Path to the folder with pkml simulation files; relative to the location of this file</t>
   </si>
   <si>
-    <t>paramsFolder</t>
-  </si>
-  <si>
     <t>Path to the folder with excel files with parametrization; relative to the location of this file</t>
   </si>
   <si>
-    <t>paramsFile</t>
-  </si>
-  <si>
     <t>ModelParameters.xlsx</t>
   </si>
   <si>
-    <t>Name of the excel file with global model parametrization. Must be located in the "paramsFolder"</t>
-  </si>
-  <si>
     <t>individualsFile</t>
   </si>
   <si>
     <t>Individuals.xlsx</t>
   </si>
   <si>
-    <t>Name of the excel file with individual-specific model parametrization. Must be located in the "paramsFolder"</t>
-  </si>
-  <si>
-    <t>scenarioDefinitionFile</t>
-  </si>
-  <si>
     <t>Scenarios.xlsx</t>
   </si>
   <si>
-    <t>Name of the excel file with scenario definitions. Must be located in the "paramsFolder"</t>
-  </si>
-  <si>
-    <t>scenarioApplicationsFile</t>
-  </si>
-  <si>
-    <t>ApplicationParameters.xlsx</t>
-  </si>
-  <si>
-    <t>Name of the excel file scenario-specific parameters such as application protocol parameters. Must be located in the "paramsFolder"</t>
-  </si>
-  <si>
     <t>outputFolder</t>
   </si>
   <si>
@@ -103,9 +76,6 @@
     <t>Plots.xlsx</t>
   </si>
   <si>
-    <t>Name of the excel file with plot definitions. Must be located in the "paramsFolder"</t>
-  </si>
-  <si>
     <t xml:space="preserve">../../Models </t>
   </si>
   <si>
@@ -115,16 +85,55 @@
     <t>.</t>
   </si>
   <si>
-    <t>populationParamsFile</t>
-  </si>
-  <si>
-    <t>PopulationParameters.xlsx</t>
-  </si>
-  <si>
-    <t>Name of the excel file with population information. Must be located in the "paramsFolder"</t>
-  </si>
-  <si>
     <t>DataImportConfiguration.xlsx</t>
+  </si>
+  <si>
+    <t>configurationsFolder</t>
+  </si>
+  <si>
+    <t>modelParamsFile</t>
+  </si>
+  <si>
+    <t>populationsFile</t>
+  </si>
+  <si>
+    <t>Populations.xlsx</t>
+  </si>
+  <si>
+    <t>Name of the excel file with global model parametrization. Must be located in the "configurationsFolder"</t>
+  </si>
+  <si>
+    <t>Name of the excel file with individual-specific model parametrization. Must be located in the "configurationsFolder"</t>
+  </si>
+  <si>
+    <t>Name of the excel file with population information. Must be located in the "configurationsFolder"</t>
+  </si>
+  <si>
+    <t>Name of the excel file with scenario definitions. Must be located in the "configurationsFolder"</t>
+  </si>
+  <si>
+    <t>Name of the excel file scenario-specific parameters such as application protocol parameters. Must be located in the "configurationsFolder"</t>
+  </si>
+  <si>
+    <t>Name of the excel file with plot definitions. Must be located in the "configurationsFolder"</t>
+  </si>
+  <si>
+    <t>populationsFolder</t>
+  </si>
+  <si>
+    <t>Name of the folder containing population defined in files</t>
+  </si>
+  <si>
+    <t>../../Models/Populations</t>
+  </si>
+  <si>
+    <t>Applications.xlsx</t>
+  </si>
+  <si>
+    <t>scenariosFile</t>
+  </si>
+  <si>
+    <t>applicationsFile</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -514,112 +523,123 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/ProjectConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF620F5-19FF-473E-BDC8-BDA5AFA2597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E188B10-2897-42A8-AD12-B9F0C6D2B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="8625" windowWidth="28830" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="1980" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>applicationsFile</t>
+  </si>
+  <si>
+    <t>pKParameterFile</t>
+  </si>
+  <si>
+    <t>PKParameter.xlsx</t>
+  </si>
+  <si>
+    <t>Name of the excel file with pk-Parameter information. Must be located in the "configurationsFolder"</t>
   </si>
 </sst>
 </file>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +651,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
